--- a/docs/Testing.xlsx
+++ b/docs/Testing.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
   <si>
     <t>Edge factor</t>
   </si>
@@ -99,6 +99,75 @@
   </si>
   <si>
     <t>0m1.215s</t>
+  </si>
+  <si>
+    <t>Takeovers per turn</t>
+  </si>
+  <si>
+    <t>multiple</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>0m36.299s</t>
+  </si>
+  <si>
+    <t>0m17.351s</t>
+  </si>
+  <si>
+    <t>0m5.854s</t>
+  </si>
+  <si>
+    <t>0m2.442s</t>
+  </si>
+  <si>
+    <t>0m1.608s</t>
+  </si>
+  <si>
+    <t>0m1.494s</t>
+  </si>
+  <si>
+    <t>0m2.119s</t>
+  </si>
+  <si>
+    <t>0m3.661s</t>
+  </si>
+  <si>
+    <t>0m15.040s</t>
+  </si>
+  <si>
+    <t>0m22.682s</t>
+  </si>
+  <si>
+    <t>0m18.660s</t>
+  </si>
+  <si>
+    <t>0m8.125s</t>
+  </si>
+  <si>
+    <t>0m3.209s</t>
+  </si>
+  <si>
+    <t>0m1.803s</t>
+  </si>
+  <si>
+    <t>0m1.335s</t>
+  </si>
+  <si>
+    <t>0m1.223s</t>
+  </si>
+  <si>
+    <t>0m1.327s</t>
+  </si>
+  <si>
+    <t>0m1.862s</t>
+  </si>
+  <si>
+    <t>0m4.178s</t>
+  </si>
+  <si>
+    <t>0m7.407s</t>
   </si>
 </sst>
 </file>
@@ -134,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -142,6 +211,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,248 +489,592 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2">
         <v>245</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
         <v>245</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>0.4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
         <v>245</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>0.3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5">
         <v>245</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>0.2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
         <v>245</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>0.1</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
         <v>200</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
         <v>200</v>
       </c>
-      <c r="B8" s="2">
+      <c r="C8" s="2">
         <v>0.4</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9">
         <v>200</v>
       </c>
-      <c r="B9" s="2">
+      <c r="C9" s="2">
         <v>0.3</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10">
         <v>200</v>
       </c>
-      <c r="B10" s="2">
+      <c r="C10" s="2">
         <v>0.2</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
         <v>200</v>
       </c>
-      <c r="B11" s="2">
+      <c r="C11" s="2">
         <v>0.1</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12">
         <v>150</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13">
         <v>150</v>
       </c>
-      <c r="B13" s="2">
+      <c r="C13" s="2">
         <v>0.4</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14">
         <v>150</v>
       </c>
-      <c r="B14" s="2">
+      <c r="C14" s="2">
         <v>0.3</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15">
         <v>150</v>
       </c>
-      <c r="B15" s="2">
+      <c r="C15" s="2">
         <v>0.2</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16">
         <v>150</v>
       </c>
-      <c r="B16" s="2">
+      <c r="C16" s="2">
         <v>0.1</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
         <v>100</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18">
         <v>100</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>0.4</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19">
         <v>100</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>0.3</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
         <v>100</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>0.2</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
         <v>100</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>0.1</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="3" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>245</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>245</v>
+      </c>
+      <c r="C23">
+        <v>0.4</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>245</v>
+      </c>
+      <c r="C24">
+        <v>0.3</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>245</v>
+      </c>
+      <c r="C25">
+        <v>0.2</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>245</v>
+      </c>
+      <c r="C26">
+        <v>0.1</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>200</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>200</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>200</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30">
+        <v>200</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31">
+        <v>200</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32">
+        <v>150</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33">
+        <v>150</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34">
+        <v>150</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35">
+        <v>150</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36">
+        <v>150</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37">
+        <v>100</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38">
+        <v>100</v>
+      </c>
+      <c r="C38">
+        <v>0.4</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39">
+        <v>100</v>
+      </c>
+      <c r="C39">
+        <v>0.3</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40">
+        <v>100</v>
+      </c>
+      <c r="C40">
+        <v>0.2</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41">
+        <v>100</v>
+      </c>
+      <c r="C41">
+        <v>0.1</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
